--- a/datasets_info/fidelity_experiments/fidelity_tripadvisor.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_tripadvisor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7656E-B72D-42C6-B83A-15C14FD5CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F76D9EA-59BC-435A-8735-36B6387344A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="1515" windowWidth="15615" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>[1,5]</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Podwójny recommender</t>
+  </si>
+  <si>
+    <t>GT spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Predykcje spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Predykcja spójna (0/1)</t>
   </si>
 </sst>
 </file>
@@ -509,35 +518,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomLeft" activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,18 +559,25 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -567,28 +585,37 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1707</v>
       </c>
@@ -602,32 +629,41 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1707</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
       <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="U3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1869</v>
       </c>
@@ -641,28 +677,37 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1869</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
       <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2227</v>
       </c>
@@ -670,54 +715,63 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>2227</v>
       </c>
-      <c r="O5">
-        <v>0.5</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
       <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4029</v>
       </c>
@@ -728,59 +782,68 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <f>COUNTIF($B$3:$B$102,I6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f>COUNTIF($B$3:$B$102,K6)</f>
         <v>8</v>
       </c>
-      <c r="K6" s="3">
-        <f>COUNTIF($E$3:$E$102,I6)</f>
+      <c r="M6" s="3">
+        <f>COUNTIF($G$3:$G$102,K6)</f>
         <v>12</v>
       </c>
-      <c r="L6" s="3">
-        <f>COUNTIF($F$3:$F$102,I6)</f>
+      <c r="N6" s="3">
+        <f>COUNTIF($H$3:$H$102,K6)</f>
         <v>17</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>4029</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
       <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <f>COUNTIF($B$3:$B$102,S6)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <f>COUNTIF($B$3:$B$102,V6)</f>
         <v>8</v>
       </c>
-      <c r="U6" s="3">
-        <f>COUNTIF($P$3:$P$102,S6)</f>
+      <c r="X6" s="3">
+        <f>COUNTIF($S$3:$S$102,V6)</f>
         <v>14</v>
       </c>
-      <c r="V6" s="3">
-        <f>COUNTIF($Q$3:$Q$102,S6)</f>
+      <c r="Y6" s="3">
+        <f>COUNTIF($T$3:$T$102,V6)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6337</v>
       </c>
@@ -791,61 +854,70 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <f>COUNTIF($B$3:$B$102,I7)</f>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <f>COUNTIF($B$3:$B$102,K7)</f>
         <v>11</v>
       </c>
-      <c r="K7" s="3">
-        <f>COUNTIF($E$3:$E$102,I7)</f>
+      <c r="M7" s="3">
+        <f>COUNTIF($G$3:$G$102,K7)</f>
         <v>13</v>
       </c>
-      <c r="L7" s="3">
-        <f>COUNTIF($F$3:$F$102,I7)</f>
+      <c r="N7" s="3">
+        <f>COUNTIF($H$3:$H$102,K7)</f>
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>6337</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="S7" s="3">
-        <v>2</v>
-      </c>
-      <c r="T7" s="3">
-        <f>COUNTIF($B$3:$B$102,S7)</f>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3">
+        <f>COUNTIF($B$3:$B$102,V7)</f>
         <v>11</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" ref="U7:U10" si="0">COUNTIF($P$3:$P$102,S7)</f>
+      <c r="X7" s="3">
+        <f t="shared" ref="X7:X10" si="0">COUNTIF($S$3:$S$102,V7)</f>
         <v>13</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" ref="V7:V10" si="1">COUNTIF($Q$3:$Q$102,S7)</f>
+      <c r="Y7" s="3">
+        <f t="shared" ref="Y7:Y10" si="1">COUNTIF($T$3:$T$102,V7)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6843</v>
       </c>
@@ -859,58 +931,67 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>COUNTIF($B$3:$B$102,I8)</f>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>COUNTIF($B$3:$B$102,K8)</f>
         <v>11</v>
       </c>
-      <c r="K8" s="3">
-        <f>COUNTIF($E$3:$E$102,I8)</f>
+      <c r="M8" s="3">
+        <f>COUNTIF($G$3:$G$102,K8)</f>
         <v>21</v>
       </c>
-      <c r="L8" s="3">
-        <f>COUNTIF($F$3:$F$102,I8)</f>
+      <c r="N8" s="3">
+        <f>COUNTIF($H$3:$H$102,K8)</f>
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>6843</v>
       </c>
-      <c r="O8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
       <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3">
-        <f>COUNTIF($B$3:$B$102,S8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3">
+        <f>COUNTIF($B$3:$B$102,V8)</f>
         <v>11</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8219</v>
       </c>
@@ -921,59 +1002,68 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <f>COUNTIF($B$3:$B$102,I9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <f>COUNTIF($B$3:$B$102,K9)</f>
         <v>22</v>
       </c>
-      <c r="K9" s="3">
-        <f>COUNTIF($E$3:$E$102,I9)</f>
+      <c r="M9" s="3">
+        <f>COUNTIF($G$3:$G$102,K9)</f>
         <v>25</v>
       </c>
-      <c r="L9" s="3">
-        <f>COUNTIF($F$3:$F$102,I9)</f>
+      <c r="N9" s="3">
+        <f>COUNTIF($H$3:$H$102,K9)</f>
         <v>34</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>8219</v>
       </c>
-      <c r="O9">
-        <v>0.5</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
       <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
-        <f>COUNTIF($B$3:$B$102,S9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <f>COUNTIF($B$3:$B$102,V9)</f>
         <v>22</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8327</v>
       </c>
@@ -984,59 +1074,68 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <f>COUNTIF($B$3:$B$102,I10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>COUNTIF($B$3:$B$102,K10)</f>
         <v>48</v>
       </c>
-      <c r="K10" s="3">
-        <f>COUNTIF($E$3:$E$102,I10)</f>
+      <c r="M10" s="3">
+        <f>COUNTIF($G$3:$G$102,K10)</f>
         <v>29</v>
       </c>
-      <c r="L10" s="3">
-        <f>COUNTIF($F$3:$F$102,I10)</f>
+      <c r="N10" s="3">
+        <f>COUNTIF($H$3:$H$102,K10)</f>
         <v>13</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>8327</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
       <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
-        <f>COUNTIF($B$3:$B$102,S10)</f>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
+        <f>COUNTIF($B$3:$B$102,V10)</f>
         <v>48</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9319</v>
       </c>
@@ -1050,28 +1149,37 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>9319</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
       <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14638</v>
       </c>
@@ -1085,40 +1193,49 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12">
         <v>14638</v>
       </c>
-      <c r="O12">
-        <v>0.5</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
       <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15702</v>
       </c>
@@ -1129,53 +1246,62 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ref="J13:K15" si="2">COUNTIF(C$3:C$102,$I13)</f>
-        <v>16</v>
-      </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>COUNTIF(C$3:C$102,$K13)</f>
+        <v>14</v>
+      </c>
+      <c r="M13" s="3">
+        <f>COUNTIF(E$3:E$102,$K13)</f>
         <v>15</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>15702</v>
       </c>
-      <c r="O13">
-        <v>0.5</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <f>COUNTIF(C$3:C$102,$S13)</f>
-        <v>16</v>
-      </c>
-      <c r="U13" s="3">
-        <f>COUNTIF(O$3:O$102,$I13)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <f>COUNTIF(C$3:C$102,$V13)</f>
+        <v>14</v>
+      </c>
+      <c r="X13" s="3">
+        <f>COUNTIF(Q$3:Q$102,$K13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20177</v>
       </c>
@@ -1189,48 +1315,57 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="I14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <f>COUNTIF(C$3:C$102,$K14)</f>
         <v>19</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="2"/>
+      <c r="M14" s="3">
+        <f>COUNTIF(E$3:E$102,$K14)</f>
         <v>20</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>20177</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
       <c r="Q14">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" ref="T14:T15" si="3">COUNTIF(C$3:C$102,$S14)</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="3">
+        <f>COUNTIF(C$3:C$102,$V14)</f>
         <v>19</v>
       </c>
-      <c r="U14" s="3">
-        <f t="shared" ref="U14:U15" si="4">COUNTIF(O$3:O$102,$I14)</f>
+      <c r="X14" s="3">
+        <f t="shared" ref="X14:X15" si="2">COUNTIF(Q$3:Q$102,$K14)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20454</v>
       </c>
@@ -1244,48 +1379,57 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <f>COUNTIF(C$3:C$102,$K15)</f>
+        <v>67</v>
+      </c>
+      <c r="M15" s="3">
+        <f>COUNTIF(E$3:E$102,$K15)</f>
+        <v>65</v>
+      </c>
+      <c r="P15">
+        <v>20454</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <f>COUNTIF(C$3:C$102,$V15)</f>
+        <v>67</v>
+      </c>
+      <c r="X15" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="N15">
-        <v>20454</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20826</v>
       </c>
@@ -1299,26 +1443,35 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="P16">
         <v>20826</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
       <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21687</v>
       </c>
@@ -1332,28 +1485,51 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N17">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17">
         <v>21687</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
       <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22110</v>
       </c>
@@ -1364,31 +1540,62 @@
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N18">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f>COUNTIF(D$3:D$102,$K18)</f>
+        <v>27</v>
+      </c>
+      <c r="M18" s="3">
+        <f>COUNTIF(F$3:F$102,$K18)</f>
+        <v>19</v>
+      </c>
+      <c r="P18">
         <v>22110</v>
       </c>
-      <c r="O18">
-        <v>0.5</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
       <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <f>COUNTIF(D$3:D$102,$V18)</f>
+        <v>27</v>
+      </c>
+      <c r="X18" s="3">
+        <f>COUNTIF(R$3:R$102,$V18)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22597</v>
       </c>
@@ -1402,26 +1609,57 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <f>COUNTIF(D$3:D$102,$K19)</f>
+        <v>73</v>
+      </c>
+      <c r="M19" s="3">
+        <f>COUNTIF(F$3:F$102,$K19)</f>
+        <v>81</v>
+      </c>
+      <c r="P19">
         <v>22597</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
       <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <f>COUNTIF(D$3:D$102,$V19)</f>
+        <v>73</v>
+      </c>
+      <c r="X19" s="3">
+        <f>COUNTIF(R$3:R$102,$V19)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22922</v>
       </c>
@@ -1435,26 +1673,35 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="P20">
         <v>22922</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
       <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23013</v>
       </c>
@@ -1468,26 +1715,35 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="P21">
         <v>23013</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>4</v>
-      </c>
       <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23641</v>
       </c>
@@ -1498,28 +1754,37 @@
         <v>0.5</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="P22">
         <v>23641</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>4</v>
-      </c>
       <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23964</v>
       </c>
@@ -1527,34 +1792,43 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>23964</v>
       </c>
-      <c r="O23">
-        <v>0.5</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
       <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24659</v>
       </c>
@@ -1568,25 +1842,34 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="P24">
         <v>24659</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
       <c r="Q24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25379</v>
       </c>
@@ -1597,31 +1880,40 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>25379</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
       <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26421</v>
       </c>
@@ -1632,31 +1924,40 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>26421</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>4</v>
-      </c>
       <c r="Q26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26683</v>
       </c>
@@ -1667,28 +1968,37 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="P27">
         <v>26683</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
       <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27811</v>
       </c>
@@ -1702,28 +2012,37 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>27811</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
       <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28137</v>
       </c>
@@ -1737,28 +2056,37 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>28137</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
       <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29341</v>
       </c>
@@ -1772,28 +2100,37 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>29341</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>5</v>
-      </c>
       <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30397</v>
       </c>
@@ -1807,25 +2144,34 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="P31">
         <v>30397</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
       <c r="Q31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30793</v>
       </c>
@@ -1836,31 +2182,40 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>30793</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
       <c r="Q32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30907</v>
       </c>
@@ -1874,25 +2229,34 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="P33">
         <v>30907</v>
       </c>
-      <c r="O33">
-        <v>0.5</v>
-      </c>
-      <c r="P33">
-        <v>3</v>
-      </c>
       <c r="Q33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31447</v>
       </c>
@@ -1903,31 +2267,40 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
         <v>21</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>31447</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
       <c r="Q34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33451</v>
       </c>
@@ -1941,28 +2314,37 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
         <v>22</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>33451</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
       <c r="Q35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35746</v>
       </c>
@@ -1973,28 +2355,37 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="P36">
         <v>35746</v>
       </c>
-      <c r="O36">
-        <v>0.5</v>
-      </c>
-      <c r="P36">
-        <v>3</v>
-      </c>
       <c r="Q36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37654</v>
       </c>
@@ -2008,28 +2399,37 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
         <v>23</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>37654</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
       <c r="Q37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39102</v>
       </c>
@@ -2043,28 +2443,37 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>10</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>39102</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
       <c r="Q38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39106</v>
       </c>
@@ -2075,28 +2484,37 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>39106</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39661</v>
       </c>
@@ -2107,31 +2525,40 @@
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>24</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>39661</v>
       </c>
-      <c r="O40">
-        <v>0.5</v>
-      </c>
-      <c r="P40">
-        <v>5</v>
-      </c>
       <c r="Q40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40031</v>
       </c>
@@ -2145,25 +2572,34 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="P41">
         <v>40031</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
       <c r="Q41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44309</v>
       </c>
@@ -2177,25 +2613,34 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="P42">
         <v>44309</v>
       </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
       <c r="Q42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45493</v>
       </c>
@@ -2209,25 +2654,34 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="P43">
         <v>45493</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>4</v>
-      </c>
       <c r="Q43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46602</v>
       </c>
@@ -2238,31 +2692,40 @@
         <v>0.5</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
         <v>10</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>46602</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>3</v>
-      </c>
       <c r="Q44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47362</v>
       </c>
@@ -2273,28 +2736,37 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="P45">
         <v>47362</v>
       </c>
-      <c r="O45">
-        <v>0.5</v>
-      </c>
-      <c r="P45">
-        <v>4</v>
-      </c>
       <c r="Q45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>47694</v>
       </c>
@@ -2308,25 +2780,34 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="P46">
         <v>47694</v>
       </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>4</v>
-      </c>
       <c r="Q46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48634</v>
       </c>
@@ -2337,31 +2818,40 @@
         <v>0.5</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
         <v>10</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>48634</v>
       </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>4</v>
-      </c>
       <c r="Q47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>51222</v>
       </c>
@@ -2375,28 +2865,37 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
         <v>10</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>51222</v>
       </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>2</v>
-      </c>
       <c r="Q48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51285</v>
       </c>
@@ -2407,31 +2906,40 @@
         <v>0.5</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
         <v>10</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>51285</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
       <c r="Q49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55755</v>
       </c>
@@ -2445,25 +2953,34 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="P50">
         <v>55755</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
       <c r="Q50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55863</v>
       </c>
@@ -2477,28 +2994,37 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
         <v>10</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>55863</v>
       </c>
-      <c r="O51">
-        <v>0.5</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
       <c r="Q51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60206</v>
       </c>
@@ -2512,25 +3038,34 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="P52">
         <v>60206</v>
       </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>3</v>
-      </c>
       <c r="Q52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60353</v>
       </c>
@@ -2541,31 +3076,40 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
         <v>25</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>60353</v>
       </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
       <c r="Q53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62859</v>
       </c>
@@ -2576,28 +3120,37 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="P54">
         <v>62859</v>
       </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
       <c r="Q54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>64782</v>
       </c>
@@ -2608,31 +3161,40 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
         <v>22</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>64782</v>
       </c>
-      <c r="O55">
-        <v>0.5</v>
-      </c>
-      <c r="P55">
-        <v>4</v>
-      </c>
       <c r="Q55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>66573</v>
       </c>
@@ -2643,28 +3205,37 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="P56">
         <v>66573</v>
       </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>2</v>
-      </c>
       <c r="Q56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>66581</v>
       </c>
@@ -2678,25 +3249,34 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="P57">
         <v>66581</v>
       </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>5</v>
-      </c>
       <c r="Q57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66614</v>
       </c>
@@ -2710,25 +3290,34 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="P58">
         <v>66614</v>
       </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
       <c r="Q58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>70075</v>
       </c>
@@ -2739,31 +3328,40 @@
         <v>0.5</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
         <v>26</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>70075</v>
       </c>
-      <c r="O59">
-        <v>0.5</v>
-      </c>
-      <c r="P59">
-        <v>4</v>
-      </c>
       <c r="Q59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>70538</v>
       </c>
@@ -2782,20 +3380,29 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="N60">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="P60">
         <v>70538</v>
       </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>74035</v>
       </c>
@@ -2806,31 +3413,40 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
         <v>27</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>74035</v>
       </c>
-      <c r="O61">
-        <v>0.5</v>
-      </c>
-      <c r="P61">
-        <v>4</v>
-      </c>
       <c r="Q61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>74349</v>
       </c>
@@ -2841,28 +3457,37 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="P62">
         <v>74349</v>
       </c>
-      <c r="O62">
-        <v>0.5</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
       <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>75573</v>
       </c>
@@ -2876,28 +3501,37 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
         <v>26</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <v>75573</v>
       </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>5</v>
-      </c>
       <c r="Q63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>76813</v>
       </c>
@@ -2908,31 +3542,40 @@
         <v>0.5</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>28</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>76813</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
       <c r="Q64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>78198</v>
       </c>
@@ -2943,31 +3586,40 @@
         <v>0.5</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
         <v>29</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>78198</v>
       </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>4</v>
-      </c>
       <c r="Q65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>78299</v>
       </c>
@@ -2978,31 +3630,40 @@
         <v>0.5</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
         <v>22</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>78299</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>5</v>
-      </c>
       <c r="Q66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80351</v>
       </c>
@@ -3016,25 +3677,34 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="N67">
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="P67">
         <v>80351</v>
       </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>2</v>
-      </c>
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>81083</v>
       </c>
@@ -3048,28 +3718,37 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>30</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>81083</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>4</v>
-      </c>
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>81561</v>
       </c>
@@ -3080,31 +3759,40 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F69">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
         <v>10</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>81561</v>
       </c>
-      <c r="O69">
-        <v>0.5</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
       <c r="Q69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>81989</v>
       </c>
@@ -3115,28 +3803,37 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="P70">
         <v>81989</v>
       </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>5</v>
-      </c>
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>88331</v>
       </c>
@@ -3147,28 +3844,37 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="P71">
         <v>88331</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
       <c r="Q71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>89439</v>
       </c>
@@ -3179,28 +3885,37 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F72">
-        <v>4</v>
-      </c>
-      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="P72">
         <v>89439</v>
       </c>
-      <c r="O72">
-        <v>0.5</v>
-      </c>
-      <c r="P72">
-        <v>2</v>
-      </c>
       <c r="Q72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90822</v>
       </c>
@@ -3214,25 +3929,34 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="P73">
         <v>90822</v>
       </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
-        <v>4</v>
-      </c>
       <c r="Q73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>92873</v>
       </c>
@@ -3246,25 +3970,34 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="P74">
         <v>92873</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
       <c r="Q74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>93861</v>
       </c>
@@ -3278,25 +4011,34 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="P75">
         <v>93861</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>4</v>
-      </c>
       <c r="Q75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>96950</v>
       </c>
@@ -3307,28 +4049,37 @@
         <v>0.5</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="P76">
         <v>96950</v>
       </c>
-      <c r="O76">
-        <v>0.5</v>
-      </c>
-      <c r="P76">
-        <v>2</v>
-      </c>
       <c r="Q76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99145</v>
       </c>
@@ -3342,25 +4093,34 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="P77">
         <v>99145</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
       <c r="Q77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>99773</v>
       </c>
@@ -3379,20 +4139,29 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="N78">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>99773</v>
       </c>
-      <c r="O78">
-        <v>0.5</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
       <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100209</v>
       </c>
@@ -3406,28 +4175,37 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
         <v>31</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>100209</v>
       </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>4</v>
-      </c>
       <c r="Q79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>101136</v>
       </c>
@@ -3438,31 +4216,40 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>32</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>101137</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
       <c r="Q80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>102325</v>
       </c>
@@ -3473,28 +4260,37 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="P81">
         <v>102325</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>5</v>
-      </c>
       <c r="Q81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>103153</v>
       </c>
@@ -3508,25 +4304,34 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="P82">
         <v>103153</v>
       </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>2</v>
-      </c>
       <c r="Q82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103209</v>
       </c>
@@ -3537,28 +4342,37 @@
         <v>0.5</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="P83">
         <v>103209</v>
       </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>4</v>
-      </c>
       <c r="Q83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>103567</v>
       </c>
@@ -3569,28 +4383,37 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="P84">
         <v>103567</v>
       </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
-        <v>2</v>
-      </c>
       <c r="Q84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>103630</v>
       </c>
@@ -3604,25 +4427,34 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="P85">
         <v>103630</v>
       </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
-        <v>5</v>
-      </c>
       <c r="Q85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>104675</v>
       </c>
@@ -3633,28 +4465,37 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="P86">
         <v>104675</v>
       </c>
-      <c r="O86">
-        <v>0.5</v>
-      </c>
-      <c r="P86">
-        <v>5</v>
-      </c>
       <c r="Q86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>107753</v>
       </c>
@@ -3668,25 +4509,34 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
-      </c>
-      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="P87">
         <v>107753</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <v>2</v>
-      </c>
       <c r="Q87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>109604</v>
       </c>
@@ -3697,31 +4547,40 @@
         <v>0.5</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F88">
-        <v>3</v>
-      </c>
-      <c r="G88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
         <v>28</v>
       </c>
-      <c r="N88">
+      <c r="P88">
         <v>109604</v>
       </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
       <c r="Q88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>111031</v>
       </c>
@@ -3732,31 +4591,40 @@
         <v>0.5</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>33</v>
       </c>
-      <c r="N89">
+      <c r="P89">
         <v>111031</v>
       </c>
-      <c r="O89">
-        <v>0.5</v>
-      </c>
-      <c r="P89">
-        <v>5</v>
-      </c>
       <c r="Q89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>114655</v>
       </c>
@@ -3770,25 +4638,34 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>4</v>
-      </c>
-      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="P90">
         <v>114655</v>
       </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
       <c r="Q90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>115210</v>
       </c>
@@ -3799,28 +4676,37 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>4</v>
-      </c>
-      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="P91">
         <v>115210</v>
       </c>
-      <c r="O91">
-        <v>0.5</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
       <c r="Q91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>115487</v>
       </c>
@@ -3834,25 +4720,34 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="N92">
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="P92">
         <v>115487</v>
       </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>4</v>
-      </c>
       <c r="Q92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>117045</v>
       </c>
@@ -3863,28 +4758,37 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>4</v>
-      </c>
-      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="P93">
         <v>117045</v>
       </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>2</v>
-      </c>
       <c r="Q93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>117531</v>
       </c>
@@ -3895,28 +4799,37 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>4</v>
-      </c>
-      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="P94">
         <v>117531</v>
       </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>4</v>
-      </c>
       <c r="Q94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>117909</v>
       </c>
@@ -3930,28 +4843,37 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>4</v>
-      </c>
-      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
         <v>10</v>
       </c>
-      <c r="N95">
+      <c r="P95">
         <v>117909</v>
       </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>4</v>
-      </c>
       <c r="Q95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>119738</v>
       </c>
@@ -3965,25 +4887,34 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="N96">
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="P96">
         <v>119738</v>
       </c>
-      <c r="O96">
-        <v>0.5</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
       <c r="Q96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>121573</v>
       </c>
@@ -3997,25 +4928,34 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>4</v>
-      </c>
-      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="P97">
         <v>121573</v>
       </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>4</v>
-      </c>
       <c r="Q97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>122950</v>
       </c>
@@ -4026,28 +4966,37 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="P98">
         <v>122950</v>
       </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>5</v>
-      </c>
       <c r="Q98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>124501</v>
       </c>
@@ -4061,25 +5010,34 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="P99">
         <v>124501</v>
       </c>
-      <c r="O99">
-        <v>0.5</v>
-      </c>
-      <c r="P99">
-        <v>4</v>
-      </c>
       <c r="Q99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>4</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>125222</v>
       </c>
@@ -4090,31 +5048,40 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
         <v>26</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <v>125222</v>
       </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
       <c r="Q100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>125667</v>
       </c>
@@ -4125,28 +5092,37 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="N101">
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="P101">
         <v>125667</v>
       </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101">
-        <v>4</v>
-      </c>
       <c r="Q101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>127002</v>
       </c>
@@ -4157,32 +5133,41 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="N102">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="P102">
         <v>127002</v>
       </c>
-      <c r="O102">
-        <v>0.5</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
       <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets_info/fidelity_experiments/fidelity_tripadvisor.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_tripadvisor.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BDA86-E2FF-45A5-A59F-667539B82292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B5EAD-6AF1-427A-93A1-0B87AE4B7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="930" windowWidth="12735" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15615" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>[1,5]</t>
   </si>
@@ -71,10 +71,16 @@
     <t>Wyjaśnienie sprzeczne wobec GT</t>
   </si>
   <si>
+    <t>Wyjaśnienie dalekie od GT</t>
+  </si>
+  <si>
     <t>Bardzo ubogie</t>
   </si>
   <si>
     <t>Wyjaśnienie przeciwne do GT</t>
+  </si>
+  <si>
+    <t>Niepotrzebne informacje w wyjaśnieniu</t>
   </si>
   <si>
     <t>Nie można ocenić spójności GT - wyjaśnienie GT nie jest wyjaśnieniem</t>
@@ -131,10 +137,22 @@
     <t>Wyjaśnienie powtórzone</t>
   </si>
   <si>
-    <t>[0, 1]</t>
+    <t>Predykcja spójna</t>
   </si>
   <si>
-    <t>GT spójne (binarne)</t>
+    <t>Podwójny recommender</t>
+  </si>
+  <si>
+    <t>GT spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Predykcje spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Predykcja spójna (0/1)</t>
+  </si>
+  <si>
+    <t>Rating input</t>
   </si>
 </sst>
 </file>
@@ -179,13 +197,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -500,29 +522,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71:DF71"/>
+      <selection pane="bottomLeft" activeCell="AB99" sqref="AB99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1"/>
+    <col min="34" max="34" width="21" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,19 +566,33 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="AB1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -550,22 +600,46 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1707</v>
       </c>
@@ -582,17 +656,47 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>1707</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3">
+        <v>1707</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1869</v>
       </c>
@@ -609,30 +713,54 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1869</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1869</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -640,21 +768,65 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>2227</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>2227</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4029</v>
       </c>
@@ -668,32 +840,86 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="K6" s="3">
-        <f>COUNTIF($B$3:$B$102,J6)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f>COUNTIF($B$3:$B$102,K6)</f>
         <v>8</v>
       </c>
-      <c r="L6" s="3">
-        <f>COUNTIF($F$3:$F$102,J6)</f>
+      <c r="M6" s="3">
+        <f>COUNTIF($G$3:$G$102,K6)</f>
+        <v>12</v>
+      </c>
+      <c r="N6" s="3">
+        <f>COUNTIF($H$3:$H$102,K6)</f>
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>4029</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <f>COUNTIF($B$3:$B$102,V6)</f>
+        <v>8</v>
+      </c>
+      <c r="X6" s="3">
+        <f>COUNTIF($S$3:$S$102,V6)</f>
         <v>14</v>
       </c>
-      <c r="M6" s="3">
-        <f>COUNTIF($G$3:$G$102,J6)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y6" s="3">
+        <f>COUNTIF($T$3:$T$102,V6)</f>
+        <v>11</v>
+      </c>
+      <c r="AA6">
+        <v>4029</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>COUNTIF($B$3:$B$102,AF6)</f>
+        <v>8</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>COUNTIF($S$3:$S$102,AF6)</f>
+        <v>14</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>COUNTIF($T$3:$T$102,AF6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6337</v>
       </c>
@@ -710,70 +936,180 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
       <c r="K7" s="3">
-        <f>COUNTIF($B$3:$B$102,J7)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L7" s="3">
-        <f>COUNTIF($F$3:$F$102,J7)</f>
+        <f>COUNTIF($B$3:$B$102,K7)</f>
+        <v>11</v>
+      </c>
+      <c r="M7" s="3">
+        <f>COUNTIF($G$3:$G$102,K7)</f>
+        <v>13</v>
+      </c>
+      <c r="N7" s="3">
+        <f>COUNTIF($H$3:$H$102,K7)</f>
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>6337</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3">
+        <f>COUNTIF($B$3:$B$102,V7)</f>
+        <v>11</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" ref="X7:X10" si="0">COUNTIF($S$3:$S$102,V7)</f>
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" ref="Y7:Y10" si="1">COUNTIF($T$3:$T$102,V7)</f>
+        <v>21</v>
+      </c>
+      <c r="AA7">
+        <v>6337</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>COUNTIF($B$3:$B$102,AF7)</f>
+        <v>11</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" ref="AH7:AH10" si="2">COUNTIF($S$3:$S$102,AF7)</f>
+        <v>13</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" ref="AI7:AI10" si="3">COUNTIF($T$3:$T$102,AF7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6843</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>COUNTIF($B$3:$B$102,K8)</f>
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <f>COUNTIF($G$3:$G$102,K8)</f>
+        <v>21</v>
+      </c>
+      <c r="N8" s="3">
+        <f>COUNTIF($H$3:$H$102,K8)</f>
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>6843</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3">
+        <f>COUNTIF($B$3:$B$102,V8)</f>
+        <v>11</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M7" s="3">
-        <f>COUNTIF($G$3:$G$102,J7)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6845</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <f>COUNTIF($B$3:$B$102,J8)</f>
-        <v>12</v>
-      </c>
-      <c r="L8" s="3">
-        <f>COUNTIF($F$3:$F$102,J8)</f>
-        <v>22</v>
-      </c>
-      <c r="M8" s="3">
-        <f>COUNTIF($G$3:$G$102,J8)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>6843</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="3">
+        <f>COUNTIF($B$3:$B$102,AF8)</f>
+        <v>11</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8219</v>
       </c>
@@ -790,31 +1126,85 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="K9" s="3">
-        <f>COUNTIF($B$3:$B$102,J9)</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3">
-        <f>COUNTIF($F$3:$F$102,J9)</f>
+        <f>COUNTIF($B$3:$B$102,K9)</f>
+        <v>22</v>
+      </c>
+      <c r="M9" s="3">
+        <f>COUNTIF($G$3:$G$102,K9)</f>
         <v>25</v>
       </c>
-      <c r="M9" s="3">
-        <f>COUNTIF($G$3:$G$102,J9)</f>
+      <c r="N9" s="3">
+        <f>COUNTIF($H$3:$H$102,K9)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>8219</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <f>COUNTIF($B$3:$B$102,V9)</f>
+        <v>22</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AA9">
+        <v>8219</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="3">
+        <f>COUNTIF($B$3:$B$102,AF9)</f>
+        <v>22</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8328</v>
+        <v>8327</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -829,29 +1219,83 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="3">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="K10" s="3">
-        <f>COUNTIF($B$3:$B$102,J10)</f>
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>COUNTIF($B$3:$B$102,K10)</f>
         <v>48</v>
       </c>
-      <c r="L10" s="3">
-        <f>COUNTIF($F$3:$F$102,J10)</f>
-        <v>25</v>
-      </c>
       <c r="M10" s="3">
-        <f>COUNTIF($G$3:$G$102,J10)</f>
+        <f>COUNTIF($G$3:$G$102,K10)</f>
+        <v>29</v>
+      </c>
+      <c r="N10" s="3">
+        <f>COUNTIF($H$3:$H$102,K10)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>8327</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
+        <f>COUNTIF($B$3:$B$102,V10)</f>
+        <v>48</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AA10">
+        <v>8327</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="3">
+        <f>COUNTIF($B$3:$B$102,AF10)</f>
+        <v>48</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9319</v>
       </c>
@@ -868,16 +1312,40 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>9319</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>9319</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14638</v>
       </c>
@@ -894,21 +1362,55 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>14638</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>14638</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15702</v>
       </c>
@@ -925,32 +1427,70 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K13" s="3">
-        <f>COUNTIF(C$3:C$102,$J13)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
-        <f>COUNTIF(E$3:E$102,$J13)</f>
+        <f>COUNTIF(C$3:C$102,$K13)</f>
+        <v>14</v>
+      </c>
+      <c r="M13" s="3">
+        <f>COUNTIF(E$3:E$102,$K13)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>15702</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <f>COUNTIF(C$3:C$102,$V13)</f>
+        <v>14</v>
+      </c>
+      <c r="X13" s="3">
+        <f>COUNTIF(Q$3:Q$102,$K13)</f>
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>15702</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20177</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -962,25 +1502,63 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="J14" s="3">
-        <v>0.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="K14" s="3">
-        <f>COUNTIF(C$3:C$102,$J14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <f>COUNTIF(C$3:C$102,$K14)</f>
         <v>19</v>
       </c>
-      <c r="L14" s="3">
-        <f>COUNTIF(E$3:E$102,$J14)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="3">
+        <f>COUNTIF(E$3:E$102,$K14)</f>
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>20177</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="3">
+        <f>COUNTIF(C$3:C$102,$V14)</f>
+        <v>19</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" ref="X14:X15" si="4">COUNTIF(Q$3:Q$102,$K14)</f>
+        <v>26</v>
+      </c>
+      <c r="AA14">
+        <v>20177</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20454</v>
       </c>
@@ -997,25 +1575,63 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="K15" s="3">
-        <f>COUNTIF(C$3:C$102,$J15)</f>
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
-        <f>COUNTIF(E$3:E$102,$J15)</f>
+        <f>COUNTIF(C$3:C$102,$K15)</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="3">
+        <f>COUNTIF(E$3:E$102,$K15)</f>
+        <v>65</v>
+      </c>
+      <c r="P15">
+        <v>20454</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <f>COUNTIF(C$3:C$102,$V15)</f>
+        <v>67</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AA15">
+        <v>20454</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20826</v>
       </c>
@@ -1032,19 +1648,43 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="P16">
+        <v>20826</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>20826</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21689</v>
+        <v>21687</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1056,14 +1696,61 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17">
+        <v>21687</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17">
+        <v>21687</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22110</v>
       </c>
@@ -1080,16 +1767,73 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f>COUNTIF(D$3:D$102,$K18)</f>
+        <v>27</v>
+      </c>
+      <c r="M18" s="3">
+        <f>COUNTIF(F$3:F$102,$K18)</f>
+        <v>19</v>
+      </c>
+      <c r="P18">
+        <v>22110</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <f>COUNTIF(D$3:D$102,$V18)</f>
+        <v>27</v>
+      </c>
+      <c r="X18" s="3">
+        <f>COUNTIF(R$3:R$102,$V18)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>22110</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>COUNTIF(D$3:D$102,$AF18)</f>
+        <v>27</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>COUNTIF(AB$3:AB$102,$AF18)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22597</v>
       </c>
@@ -1106,14 +1850,71 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <f>COUNTIF(D$3:D$102,$K19)</f>
+        <v>73</v>
+      </c>
+      <c r="M19" s="3">
+        <f>COUNTIF(F$3:F$102,$K19)</f>
+        <v>81</v>
+      </c>
+      <c r="P19">
+        <v>22597</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <f>COUNTIF(D$3:D$102,$V19)</f>
+        <v>73</v>
+      </c>
+      <c r="X19" s="3">
+        <f>COUNTIF(R$3:R$102,$V19)</f>
+        <v>86</v>
+      </c>
+      <c r="AA19">
+        <v>22597</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>COUNTIF(D$3:D$102,$AF19)</f>
+        <v>73</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>COUNTIF(AB$3:AB$102,$AF19)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22922</v>
       </c>
@@ -1130,14 +1931,38 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="P20">
+        <v>22922</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>22922</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23013</v>
       </c>
@@ -1154,16 +1979,40 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="P21">
+        <v>23013</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>23013</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23639</v>
+        <v>23641</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1178,39 +2027,87 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>23641</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>23641</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23963</v>
+        <v>23964</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23">
+        <v>23964</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>23964</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24659</v>
       </c>
@@ -1227,13 +2124,37 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>24659</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>24659</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25379</v>
       </c>
@@ -1253,13 +2174,37 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>25379</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>25379</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26421</v>
       </c>
@@ -1276,16 +2221,40 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>26421</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>26421</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26683</v>
       </c>
@@ -1302,13 +2271,37 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>26683</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>26683</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27811</v>
       </c>
@@ -1325,16 +2318,40 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>27811</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="AA28">
+        <v>27811</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28137</v>
       </c>
@@ -1351,16 +2368,40 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29">
+        <v>28137</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>28137</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29341</v>
       </c>
@@ -1377,16 +2418,40 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>29341</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>29341</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30397</v>
       </c>
@@ -1403,13 +2468,37 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>30397</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
+        <v>30397</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30793</v>
       </c>
@@ -1426,16 +2515,40 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>30793</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>30793</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30907</v>
       </c>
@@ -1452,13 +2565,37 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>30907</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>30907</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31447</v>
       </c>
@@ -1475,16 +2612,40 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34">
+        <v>31447</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>31447</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33451</v>
       </c>
@@ -1501,18 +2662,42 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35">
+        <v>33451</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="AA35">
+        <v>33451</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35745</v>
+        <v>35746</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1527,13 +2712,37 @@
         <v>0.5</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>35746</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>35746</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37654</v>
       </c>
@@ -1550,16 +2759,40 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <v>37654</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>37654</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39102</v>
       </c>
@@ -1576,16 +2809,40 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>39102</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>39102</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39106</v>
       </c>
@@ -1602,15 +2859,39 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>39106</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>39106</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39660</v>
+        <v>39661</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1625,16 +2906,40 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40">
+        <v>39661</v>
+      </c>
+      <c r="Q40">
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>39661</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40031</v>
       </c>
@@ -1651,13 +2956,37 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>40031</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>40031</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44309</v>
       </c>
@@ -1674,13 +3003,37 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>44309</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>44309</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45493</v>
       </c>
@@ -1697,13 +3050,37 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>45493</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>45493</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46602</v>
       </c>
@@ -1720,16 +3097,40 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>46602</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>46602</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47362</v>
       </c>
@@ -1746,13 +3147,37 @@
         <v>0.5</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>47362</v>
+      </c>
+      <c r="Q45">
+        <v>0.5</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>47362</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>47694</v>
       </c>
@@ -1769,13 +3194,37 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>47694</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="AA46">
+        <v>47694</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48634</v>
       </c>
@@ -1792,16 +3241,40 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>48634</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="AA47">
+        <v>48634</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>51222</v>
       </c>
@@ -1818,18 +3291,42 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>51222</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="AA48">
+        <v>51222</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>51823</v>
+        <v>51285</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1844,16 +3341,40 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>51285</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>51285</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55755</v>
       </c>
@@ -1870,13 +3391,37 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>55755</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="AA50">
+        <v>55755</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55863</v>
       </c>
@@ -1893,16 +3438,40 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>55863</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>55863</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60206</v>
       </c>
@@ -1919,13 +3488,37 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>60206</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>60206</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60353</v>
       </c>
@@ -1942,16 +3535,40 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53">
+        <v>60353</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>60353</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62859</v>
       </c>
@@ -1971,10 +3588,34 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>62859</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>62859</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>64782</v>
       </c>
@@ -1991,16 +3632,40 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55">
+        <v>64782</v>
+      </c>
+      <c r="Q55">
+        <v>0.5</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="AA55">
+        <v>64782</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>66573</v>
       </c>
@@ -2017,13 +3682,37 @@
         <v>0.5</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>66573</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="AA56">
+        <v>66573</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>66581</v>
       </c>
@@ -2040,13 +3729,37 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>66581</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="AA57">
+        <v>66581</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66614</v>
       </c>
@@ -2063,13 +3776,37 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>66614</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+      <c r="AA58">
+        <v>66614</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>70075</v>
       </c>
@@ -2086,16 +3823,40 @@
         <v>0.5</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59">
+        <v>70075</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>70075</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>70538</v>
       </c>
@@ -2117,10 +3878,34 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>70538</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>70538</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>74033</v>
+        <v>74035</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -2135,16 +3920,40 @@
         <v>0.5</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>5</v>
-      </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61">
+        <v>74035</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="AA61">
+        <v>74035</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>74349</v>
       </c>
@@ -2161,13 +3970,37 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>74349</v>
+      </c>
+      <c r="Q62">
+        <v>0.5</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>74349</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>75573</v>
       </c>
@@ -2184,18 +4017,42 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63">
+        <v>75573</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="AA63">
+        <v>75573</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>76809</v>
+        <v>76813</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -2210,18 +4067,42 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64">
+        <v>76813</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>76813</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>78197</v>
+        <v>78198</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -2236,16 +4117,40 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65">
+        <v>78198</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="AA65">
+        <v>78198</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>78299</v>
       </c>
@@ -2262,16 +4167,40 @@
         <v>0.5</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66">
+        <v>78299</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="AA66">
+        <v>78299</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80351</v>
       </c>
@@ -2288,13 +4217,37 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>80351</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>80351</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>81083</v>
       </c>
@@ -2311,16 +4264,40 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68">
+        <v>81083</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>81083</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>81561</v>
       </c>
@@ -2337,16 +4314,40 @@
         <v>0.5</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>5</v>
-      </c>
-      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>81561</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>81561</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>81989</v>
       </c>
@@ -2363,13 +4364,37 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>81989</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>81989</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>88331</v>
       </c>
@@ -2389,10 +4414,34 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>88331</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="AA71">
+        <v>88331</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>89439</v>
       </c>
@@ -2409,13 +4458,37 @@
         <v>0.5</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>89439</v>
+      </c>
+      <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="AA72">
+        <v>89439</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90822</v>
       </c>
@@ -2432,13 +4505,37 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>90822</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="AA73">
+        <v>90822</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>92873</v>
       </c>
@@ -2455,13 +4552,37 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>92873</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+      <c r="AA74">
+        <v>92873</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>93861</v>
       </c>
@@ -2478,13 +4599,37 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>93861</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>4</v>
+      </c>
+      <c r="AA75">
+        <v>93861</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>96950</v>
       </c>
@@ -2504,10 +4649,34 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>96950</v>
+      </c>
+      <c r="Q76">
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="AA76">
+        <v>96950</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99145</v>
       </c>
@@ -2524,13 +4693,37 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>99145</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="AA77">
+        <v>99145</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>99773</v>
       </c>
@@ -2552,8 +4745,32 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>99773</v>
+      </c>
+      <c r="Q78">
+        <v>0.5</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>99773</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100209</v>
       </c>
@@ -2570,18 +4787,42 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>4</v>
       </c>
-      <c r="H79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79">
+        <v>100209</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>100209</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>101135</v>
+        <v>101136</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -2596,16 +4837,40 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80">
+        <v>101137</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="AA80">
+        <v>101137</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>102325</v>
       </c>
@@ -2622,13 +4887,37 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>102325</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>4</v>
+      </c>
+      <c r="AA81">
+        <v>102325</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>103153</v>
       </c>
@@ -2645,13 +4934,37 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>103153</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="AA82">
+        <v>103153</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103209</v>
       </c>
@@ -2668,15 +4981,39 @@
         <v>0.5</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>103209</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+      <c r="AA83">
+        <v>103209</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>103569</v>
+        <v>103567</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -2694,10 +5031,34 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>103567</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="AA84">
+        <v>103567</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>103630</v>
       </c>
@@ -2714,13 +5075,37 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>103630</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+      <c r="AA85">
+        <v>103630</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>104675</v>
       </c>
@@ -2731,19 +5116,43 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0.5</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>104675</v>
+      </c>
+      <c r="Q86">
+        <v>0.5</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>104675</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>107753</v>
       </c>
@@ -2760,15 +5169,39 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>107753</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>4</v>
+      </c>
+      <c r="AA87">
+        <v>107753</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>109605</v>
+        <v>109604</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2777,22 +5210,46 @@
         <v>0.5</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0.5</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
-      <c r="H88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P88">
+        <v>109604</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="AA88">
+        <v>109604</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>111031</v>
       </c>
@@ -2809,16 +5266,40 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89">
+        <v>111031</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>111031</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>114655</v>
       </c>
@@ -2835,13 +5316,37 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>114655</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="AA90">
+        <v>114655</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>115210</v>
       </c>
@@ -2858,13 +5363,37 @@
         <v>0.5</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="P91">
+        <v>115210</v>
+      </c>
+      <c r="Q91">
+        <v>0.5</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+      <c r="AA91">
+        <v>115210</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>115487</v>
       </c>
@@ -2881,13 +5410,37 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>115487</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="AA92">
+        <v>115487</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>117045</v>
       </c>
@@ -2904,13 +5457,37 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>117045</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+      <c r="AA93">
+        <v>117045</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>117531</v>
       </c>
@@ -2927,13 +5504,37 @@
         <v>0.5</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>117531</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>4</v>
+      </c>
+      <c r="AA94">
+        <v>117531</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>117909</v>
       </c>
@@ -2950,18 +5551,42 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>4</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>117909</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="AA95">
+        <v>117909</v>
+      </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>119741</v>
+        <v>119738</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -2976,13 +5601,37 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>119738</v>
+      </c>
+      <c r="Q96">
+        <v>0.5</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>119738</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>121573</v>
       </c>
@@ -2999,13 +5648,37 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>121573</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>5</v>
+      </c>
+      <c r="AA97">
+        <v>121573</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>122950</v>
       </c>
@@ -3022,13 +5695,37 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>122950</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="AA98">
+        <v>122950</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>124501</v>
       </c>
@@ -3045,13 +5742,37 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>124501</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>4</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>124501</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>125222</v>
       </c>
@@ -3068,16 +5789,40 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="P100">
+        <v>125222</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="AA100">
+        <v>125222</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>125667</v>
       </c>
@@ -3094,13 +5839,37 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>125667</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>125667</v>
+      </c>
+      <c r="AB101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>127002</v>
       </c>
@@ -3122,8 +5891,36 @@
       <c r="G102">
         <v>1</v>
       </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>127002</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="AA102">
+        <v>127002</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="AB1:AD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
